--- a/biology/Botanique/Phycobilisome/Phycobilisome.xlsx
+++ b/biology/Botanique/Phycobilisome/Phycobilisome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le phycobilisome est un complexe collecteur d'énergie lumineuse de l'appareil photosynthétique présent chez les Cyanobacteria et des Rhodophyta ainsi que les Glaucocystophyta. Il est extrinsèque à la membrane thylakoïdale et constitué de phycobiliprotéines.
 </t>
@@ -511,7 +523,9 @@
           <t>Composition et structure des phycobilisomes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Certains groupes d'organismes photosynthétiques marins tels que les algues rouges (Rhodophyta) et la plupart des cyanobactéries (Cyanophyta) ne possèdent pas d'antennes photosynthétiques intrinsèques aux membranes photosynthétiques contrairement par exemple aux plantes terrestres. Cette fonction est assurée par des macrostructures de taille considérable (7000 à 15000 kDa) qui sont visualisables en microscopie électronique en transmission en coloration négative : les phycobilisomes. Ces macrocomplexes protéiques sont composés d'un cœur sur lequel sont fixés des projections radiaires (ou bras). Les structures connues de phycobilisome présentent des variations avec des formes hémiellipsoides, hémidiscoides ou en paquet. Le cœur peut être tri- ou penta-cylindrique. 
 Les phycobilisomes sont composés de complexes pigment-protéine appelées phycobiliprotéines dont l'existence est maintenant connue depuis très longtemps. Elles arborent des couleurs très vives et sont très fluorescentes. Dans les années 1900, la cristallisation de certaines de ces phycobiliprotéines permit de mettre en évidence une certaine ressemblance avec les globines du fait qu'elles sont composées d'une partie protéique et d'une partie pigmentaire solidement fixée. L'étude des phycobilisomes débuta réellement dans les années 1960 lorsque Gantt et Conti isolèrent des « granules » associées aux membranes photosynthétiques d'algues rouges, granules composés de phycobiliprotéines. Quatre types d'apoprotéines correspondant aux phycobiliprotéines nommées phycocyanine, allophycocyanine, phycoérythrine et phycoérythrocyanine sont connues à ce jour. Les apophycobiliprotéines sont composées de deux peptides principaux de 15-20 kDa appelés chaînes alpha et béta. Le plus petit état d'agrégation de ces peptides est un hétérodimère alpha-bêta pouvant s'agréger jusqu'à former un hexamère d'hétérodimères alpha-bêta. Les hexamères de phycoérythrine et de phycocyanine ont ainsi une structure discoïdale de 120 angströms de diamètre sur 60 angströms de hauteur, au centre de laquelle se trouve un espace libre. Les hexamères de phycoérythrine et de phycocyanine sont capables de s'empiler les uns sur les autres pour former des cylindres creux qui constituent la structure des bras des phycobilisomes.
@@ -546,7 +560,9 @@
           <t>Fonctionnement des phycobilisomes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bras des phycobilisomes peuvent être composés de différentes phycobiliprotéines et être plus ou moins longs selon les organismes considérés. De plus, les diverses phycobiliprotéines lient des quantités différentes de phycobilines. Par exemple, les phycocyanines contiennent trois phycobilines alors que les phycoérythrines peuvent en lier jusqu’à six. Toutefois, les règles de fonctionnement global des phycobilisomes sont conservées. 
 Les niveaux d’énergie des phycobilines dans une phycobiliprotéine ne sont pas équivalents. Toutes les phycobilines absorbent de l’énergie d’excitation mais la fluorescence de la protéine est due aux chromophores qui absorbent le plus loin dans le spectre lumineux. Les phycobilines qui absorbent l’énergie d’excitation pour la transférer sont des chromophores dits « donneurs » alors que les bilines qui reçoivent l’énergie et fluorescent son appelées « accepteurs ». C’est la C-phycocyanine, abondante chez beaucoup de cyanobactéries d’eau douce, leur donnant leur couleur bleu-vert caractéristique, qui a été la mieux caractérisée. Dans cette phycocyanine, les phycobilines positionnées en alpha-84 et alpha-155 sont des donneurs et celle en beta-84, une phycocyanobiline conservée chez tous les types de PC est un accepteur. Chez les phycoérythrines, le chromophore accepteur terminal est la phycoérythrobiline placée en beta-82, conservée dans tous les types de phycoérythrines. Le chromophore accepteur est en relation avec l’orifice central des trimères de phycobiliprotéine alors que les donneurs sont situés à la périphérie des disques. 
